--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H2">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I2">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J2">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N2">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O2">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P2">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q2">
-        <v>222.4528523784277</v>
+        <v>262.1553104997583</v>
       </c>
       <c r="R2">
-        <v>222.4528523784277</v>
+        <v>2359.397794497825</v>
       </c>
       <c r="S2">
-        <v>0.08844703439847672</v>
+        <v>0.08116558553352851</v>
       </c>
       <c r="T2">
-        <v>0.08844703439847672</v>
+        <v>0.100722715885935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H3">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I3">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J3">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N3">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P3">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q3">
-        <v>188.6992329437145</v>
+        <v>222.56567413588</v>
       </c>
       <c r="R3">
-        <v>188.6992329437145</v>
+        <v>2003.09106722292</v>
       </c>
       <c r="S3">
-        <v>0.07502662864824376</v>
+        <v>0.06890828656671387</v>
       </c>
       <c r="T3">
-        <v>0.07502662864824376</v>
+        <v>0.08551197806832329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H4">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I4">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J4">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N4">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O4">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P4">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q4">
-        <v>95.85040364430829</v>
+        <v>120.493917655835</v>
       </c>
       <c r="R4">
-        <v>95.85040364430829</v>
+        <v>1084.445258902515</v>
       </c>
       <c r="S4">
-        <v>0.038110025821625</v>
+        <v>0.03730597469538437</v>
       </c>
       <c r="T4">
-        <v>0.038110025821625</v>
+        <v>0.04629497915146409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H5">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I5">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J5">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N5">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O5">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P5">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q5">
-        <v>120.5737173958471</v>
+        <v>136.019097244915</v>
       </c>
       <c r="R5">
-        <v>120.5737173958471</v>
+        <v>1224.171875204235</v>
       </c>
       <c r="S5">
-        <v>0.04793999095107521</v>
+        <v>0.04211270658824078</v>
       </c>
       <c r="T5">
-        <v>0.04793999095107521</v>
+        <v>0.05225990982499498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H6">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I6">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J6">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N6">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O6">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P6">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q6">
-        <v>144.1810732351534</v>
+        <v>163.445131676945</v>
       </c>
       <c r="R6">
-        <v>144.1810732351534</v>
+        <v>980.67079006167</v>
       </c>
       <c r="S6">
-        <v>0.05732625231680582</v>
+        <v>0.0506040476154159</v>
       </c>
       <c r="T6">
-        <v>0.05732625231680582</v>
+        <v>0.04186484601933792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J7">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N7">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O7">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P7">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q7">
-        <v>260.6783446182865</v>
+        <v>273.591532646385</v>
       </c>
       <c r="R7">
-        <v>260.6783446182865</v>
+        <v>2462.323793817465</v>
       </c>
       <c r="S7">
-        <v>0.1036454523593577</v>
+        <v>0.08470634030615908</v>
       </c>
       <c r="T7">
-        <v>0.1036454523593577</v>
+        <v>0.1051166278455562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J8">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N8">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P8">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q8">
-        <v>221.1246255041416</v>
+        <v>232.274844195336</v>
       </c>
       <c r="R8">
-        <v>221.1246255041416</v>
+        <v>2090.473597758024</v>
       </c>
       <c r="S8">
-        <v>0.08791893270509356</v>
+        <v>0.07191433085175261</v>
       </c>
       <c r="T8">
-        <v>0.08791893270509356</v>
+        <v>0.08924233918716745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J9">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N9">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O9">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P9">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q9">
-        <v>112.3209897551122</v>
+        <v>125.750325420387</v>
       </c>
       <c r="R9">
-        <v>112.3209897551122</v>
+        <v>1131.752928783483</v>
       </c>
       <c r="S9">
-        <v>0.04465871459198583</v>
+        <v>0.03893340468411711</v>
       </c>
       <c r="T9">
-        <v>0.04465871459198583</v>
+        <v>0.04831454406067879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J10">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N10">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O10">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P10">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q10">
-        <v>141.2926681729099</v>
+        <v>141.952773008763</v>
       </c>
       <c r="R10">
-        <v>141.2926681729099</v>
+        <v>1277.574957078867</v>
       </c>
       <c r="S10">
-        <v>0.0561778253168122</v>
+        <v>0.04394982469513976</v>
       </c>
       <c r="T10">
-        <v>0.0561778253168122</v>
+        <v>0.05453968793432255</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J11">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N11">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O11">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P11">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q11">
-        <v>168.956626513783</v>
+        <v>170.575236465129</v>
       </c>
       <c r="R11">
-        <v>168.956626513783</v>
+        <v>1023.451418790774</v>
       </c>
       <c r="S11">
-        <v>0.06717698783063263</v>
+        <v>0.05281159065143197</v>
       </c>
       <c r="T11">
-        <v>0.06717698783063263</v>
+        <v>0.0436911514956556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H12">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I12">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J12">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.0764222826725</v>
+        <v>40.91730166666667</v>
       </c>
       <c r="N12">
-        <v>39.0764222826725</v>
+        <v>122.751905</v>
       </c>
       <c r="O12">
-        <v>0.2882419878105448</v>
+        <v>0.2897771170516138</v>
       </c>
       <c r="P12">
-        <v>0.2882419878105448</v>
+        <v>0.3083463959441224</v>
       </c>
       <c r="Q12">
-        <v>241.8253015423482</v>
+        <v>400.1992181929909</v>
       </c>
       <c r="R12">
-        <v>241.8253015423482</v>
+        <v>2401.195309157945</v>
       </c>
       <c r="S12">
-        <v>0.09614950105271043</v>
+        <v>0.1239051912119262</v>
       </c>
       <c r="T12">
-        <v>0.09614950105271043</v>
+        <v>0.1025070522126312</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H13">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I13">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J13">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.1472077435139</v>
+        <v>34.738136</v>
       </c>
       <c r="N13">
-        <v>33.1472077435139</v>
+        <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2445059320232653</v>
+        <v>0.2460161470038337</v>
       </c>
       <c r="P13">
-        <v>0.2445059320232653</v>
+        <v>0.2617811683839066</v>
       </c>
       <c r="Q13">
-        <v>205.1322265348876</v>
+        <v>339.762748334092</v>
       </c>
       <c r="R13">
-        <v>205.1322265348876</v>
+        <v>2038.576490004552</v>
       </c>
       <c r="S13">
-        <v>0.08156037066992795</v>
+        <v>0.1051935295853673</v>
       </c>
       <c r="T13">
-        <v>0.08156037066992795</v>
+        <v>0.08702685112841589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H14">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I14">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J14">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.8372345363229</v>
+        <v>18.806737</v>
       </c>
       <c r="N14">
-        <v>16.8372345363229</v>
+        <v>56.42021099999999</v>
       </c>
       <c r="O14">
-        <v>0.1241976022491215</v>
+        <v>0.1331896729995656</v>
       </c>
       <c r="P14">
-        <v>0.1241976022491215</v>
+        <v>0.1417246332776418</v>
       </c>
       <c r="Q14">
-        <v>104.1975974522879</v>
+        <v>183.9427610714765</v>
       </c>
       <c r="R14">
-        <v>104.1975974522879</v>
+        <v>1103.656566428859</v>
       </c>
       <c r="S14">
-        <v>0.04142886183551071</v>
+        <v>0.05695029362006416</v>
       </c>
       <c r="T14">
-        <v>0.04142886183551071</v>
+        <v>0.04711511006549893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H15">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I15">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J15">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1801711993181</v>
+        <v>21.229913</v>
       </c>
       <c r="N15">
-        <v>21.1801711993181</v>
+        <v>63.689739</v>
       </c>
       <c r="O15">
-        <v>0.1562326920437192</v>
+        <v>0.1503506520179033</v>
       </c>
       <c r="P15">
-        <v>0.1562326920437192</v>
+        <v>0.1599853092240957</v>
       </c>
       <c r="Q15">
-        <v>131.0739568208843</v>
+        <v>207.6430810154485</v>
       </c>
       <c r="R15">
-        <v>131.0739568208843</v>
+        <v>1245.858486092691</v>
       </c>
       <c r="S15">
-        <v>0.05211487577583179</v>
+        <v>0.06428812073452281</v>
       </c>
       <c r="T15">
-        <v>0.05211487577583179</v>
+        <v>0.05318571146477812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H16">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I16">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J16">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.3270769183994</v>
+        <v>25.510579</v>
       </c>
       <c r="N16">
-        <v>25.3270769183994</v>
+        <v>51.021158</v>
       </c>
       <c r="O16">
-        <v>0.1868217858733491</v>
+        <v>0.1806664109270835</v>
       </c>
       <c r="P16">
-        <v>0.1868217858733491</v>
+        <v>0.1281624931702333</v>
       </c>
       <c r="Q16">
-        <v>156.7371743675225</v>
+        <v>249.5109246113255</v>
       </c>
       <c r="R16">
-        <v>156.7371743675225</v>
+        <v>998.0436984453021</v>
       </c>
       <c r="S16">
-        <v>0.06231854572591067</v>
+        <v>0.07725077266023568</v>
       </c>
       <c r="T16">
-        <v>0.06231854572591067</v>
+        <v>0.04260649565523979</v>
       </c>
     </row>
   </sheetData>
